--- a/接口说明文档/租房系统接口说明文档0409.xlsx
+++ b/接口说明文档/租房系统接口说明文档0409.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="房客" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>模块</t>
   </si>
@@ -103,6 +103,16 @@
 "token":"xxx",
 "userName":"用户名",
 "sex":"性别"
+}</t>
+  </si>
+  <si>
+    <t>获取房源列表接口</t>
+  </si>
+  <si>
+    <t>/user/getHousehaveReviewed</t>
+  </si>
+  <si>
+    <t>{
 }</t>
   </si>
   <si>
@@ -222,11 +232,9 @@
 "roomArea":20,
 "sofaNum":1,
 "liveWithOwner":0,
-"bed":[
-{"type":"双人床","length":2,"width":1,"num":1},
-{"type":"单人床","length":2,"width":1,"num":1}
-],
-"replaceBedSheet":"每日一换"
+"bed":{"type":"单人床","length":2,"width":1,"num":1},
+"replaceBedSheet":"每日一换",
+"bathroomType":"共用卫生间"
 }</t>
   </si>
   <si>
@@ -251,14 +259,11 @@
 "kitchenNum":厨房个数，int
 "balconyNum":阳台个数，int
 "roomArea":房间面积，int
-"sofaNum":沙发的数量，int
 "liveWithOwner":是否和房主一起住，0代表不一起住，1代表一起住，int
-"bed":[
-{"type":"双人床","length":2,"width":1,"num":1},
-{"type":"单人床","length":2,"width":1,"num":1}
-]
-bed对应的值是一个json数组，数组中对应的json对象中type表示床的类型，length和width表示床的长宽，num表示这种规格的床的数量。
-"replaceBedSheet"表示床单更换的类别，String</t>
+"bed":{"type":"双人床","length":2,"width":1,"num":1},
+bed对应的值是一个json格式，对应的json对象中type表示床的类型，length和width表示床的长宽，num表示这种规格的床的数量。
+"replaceBedSheet"表示床单更换的类别，String
+"bathroomType"为卫生间类型,String</t>
   </si>
   <si>
     <t>保存房源描述的接口</t>
@@ -743,9 +748,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(\¥* #,##0.00_);_(\¥* \(#,##0.00\);_(\¥* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -764,24 +769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,8 +807,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,6 +828,43 @@
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,28 +893,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -928,12 +933,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -946,7 +1047,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,157 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,26 +1142,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,6 +1172,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1187,6 +1192,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,21 +1231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1240,143 +1245,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1768,9 +1773,9 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1871,12 +1876,20 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" customFormat="1" ht="104" customHeight="1" spans="1:7">
       <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
@@ -2693,10 +2706,10 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2736,28 +2749,28 @@
     </row>
     <row r="2" ht="180" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="75" spans="2:7">
@@ -2765,198 +2778,198 @@
         <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="139" customHeight="1" spans="1:9">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="139" customHeight="1" spans="1:9">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I5" s="17"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="200" customHeight="1" spans="2:7">
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="185" customHeight="1" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="135" spans="2:7">
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="135" spans="2:7">
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="210" spans="2:7">
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="165" spans="2:7">
       <c r="B12" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -2974,7 +2987,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3013,106 +3026,106 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="100" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="100" customHeight="1" spans="1:7">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="87" customHeight="1" spans="1:7">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="111" customHeight="1" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="100" customHeight="1" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" s="7"/>
     </row>
